--- a/tabla/ventaconsolas.xlsx
+++ b/tabla/ventaconsolas.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comot\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Verde5\Desktop\databases\tabla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0284242-FEEF-4E95-96EB-E89F75EDE6DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{4A205373-7D71-46BC-846F-766AE48ED371}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="empresa" sheetId="1" r:id="rId1"/>
+    <sheet name="consolas" sheetId="2" r:id="rId2"/>
+    <sheet name="tipo" sheetId="5" r:id="rId3"/>
+    <sheet name="consolas x tipo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t xml:space="preserve">por empresa </t>
   </si>
   <si>
-    <t xml:space="preserve">fabricante </t>
-  </si>
-  <si>
     <t xml:space="preserve">ventas de consolas de videojuegos </t>
   </si>
   <si>
@@ -65,19 +61,121 @@
     <t>año de lanzamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">consolas portatiles mas vendidas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">unidades </t>
-  </si>
-  <si>
     <t>consolas mas vendidas en cada generacion</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>nintendo</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sega </t>
+  </si>
+  <si>
+    <t>atari</t>
+  </si>
+  <si>
+    <t>374 millones</t>
+  </si>
+  <si>
+    <t>471.20 millones</t>
+  </si>
+  <si>
+    <t>160.8 millones</t>
+  </si>
+  <si>
+    <t>62.14 millones</t>
+  </si>
+  <si>
+    <t>31 millones</t>
+  </si>
+  <si>
+    <t>430.93 millones</t>
+  </si>
+  <si>
+    <t>92.40 millones</t>
+  </si>
+  <si>
+    <t>14.02 millones</t>
+  </si>
+  <si>
+    <t>1 millones</t>
+  </si>
+  <si>
+    <t>nintendo switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playstation 2</t>
+  </si>
+  <si>
+    <t>xbox360</t>
+  </si>
+  <si>
+    <t>sega genesis</t>
+  </si>
+  <si>
+    <t>atari 2600</t>
+  </si>
+  <si>
+    <t>111,80 millones</t>
+  </si>
+  <si>
+    <t>155 millones</t>
+  </si>
+  <si>
+    <t>85,80 millones</t>
+  </si>
+  <si>
+    <t>30,75 millones</t>
+  </si>
+  <si>
+    <t>30 millones</t>
+  </si>
+  <si>
+    <t>generacion 8</t>
+  </si>
+  <si>
+    <t>generacion 7</t>
+  </si>
+  <si>
+    <t>generacion 6</t>
+  </si>
+  <si>
+    <t>generacion 4</t>
+  </si>
+  <si>
+    <t>generacion 2</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>tipo_id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>sobremesa</t>
+  </si>
+  <si>
+    <t>portátil</t>
+  </si>
+  <si>
+    <t>consolas_x_tipo_id</t>
+  </si>
+  <si>
+    <t>fabricante_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,15 +247,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,18 +575,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9DAFEA-4F93-4A89-BD9E-2EACFE1E0D9A}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -493,31 +598,104 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -525,120 +703,225 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D54E2F-6FEA-422C-BF1B-872E9C198430}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2005</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1988</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1977</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="7">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD30D93-2391-4F5A-AEFF-630F3BA934A4}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39E836A-FD1D-4688-9680-74A95549B0CA}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tabla/ventaconsolas.xlsx
+++ b/tabla/ventaconsolas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Verde5\Desktop\databases\tabla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comot\Desktop\databases\tabla\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8403D5F-4301-496D-AC9D-6A42155B49C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empresa" sheetId="1" r:id="rId1"/>
@@ -22,17 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t xml:space="preserve">por empresa </t>
   </si>
@@ -170,12 +166,15 @@
   </si>
   <si>
     <t>fabricante_id</t>
+  </si>
+  <si>
+    <t>Sony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,6 +248,9 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,9 +258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,40 +574,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -619,71 +618,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D4:E4"/>
@@ -691,11 +695,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -703,30 +702,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -736,12 +735,12 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -751,12 +750,12 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>2017</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -766,12 +765,12 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -781,12 +780,12 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>2005</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -796,12 +795,12 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>1988</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -811,10 +810,10 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>1977</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -831,16 +830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -848,7 +847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -856,7 +855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -870,28 +869,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -902,7 +901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -913,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -922,6 +921,50 @@
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tabla/ventaconsolas.xlsx
+++ b/tabla/ventaconsolas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comot\Desktop\databases\tabla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Verde5\Desktop\databases\tabla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8403D5F-4301-496D-AC9D-6A42155B49C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="empresa" sheetId="1" r:id="rId1"/>
@@ -36,9 +35,6 @@
     <t xml:space="preserve">ventas de consolas de videojuegos </t>
   </si>
   <si>
-    <t>consolas mas vendidas de sobremesa</t>
-  </si>
-  <si>
     <t>venta en consolas sobremesa</t>
   </si>
   <si>
@@ -169,12 +165,15 @@
   </si>
   <si>
     <t>Sony</t>
+  </si>
+  <si>
+    <t>consolas mas vendidas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,9 +247,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +254,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,120 +573,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D4:E4"/>
@@ -695,6 +689,11 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -702,118 +701,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" s="4">
+        <v>2005</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" s="4">
+        <v>1988</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1">
-        <v>1988</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>1977</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -830,37 +829,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -869,99 +868,99 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
